--- a/Streamlit_App/Alternating_block_method_app.xlsx
+++ b/Streamlit_App/Alternating_block_method_app.xlsx
@@ -636,7 +636,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="22" customWidth="1" min="7" max="7"/>
@@ -661,7 +661,7 @@
         <v>0.17</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>3.38</v>
+        <v>2.6</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>10</v>
@@ -677,7 +677,7 @@
         <v>0.33</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>4.96</v>
+        <v>3.7</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>20</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -701,14 +701,14 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>10.44</v>
+        <v>7.39</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ΚΕΝΤΡΙΚΟ</t>
+          <t>ΜΕΓΑΛΗ ΣΤΕΡΝΑ</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>26.72</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="6">
@@ -725,7 +725,7 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>26.72</v>
+        <v>18.59</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>40</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.359999999999999</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="7">
@@ -744,7 +744,7 @@
         <v>0.83</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>6.65</v>
+        <v>4.85</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>50</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.1</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="8">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>4</v>
+        <v>3.04</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>60</v>
